--- a/Planning en Documentatie/Backlog sprintresultaten.xlsx
+++ b/Planning en Documentatie/Backlog sprintresultaten.xlsx
@@ -9,7 +9,11 @@
   </bookViews>
   <sheets>
     <sheet name="Cursusadministatie User Stories" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Backlog dag1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Backlog dag2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Backlog dag3" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Backlog dag4" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Backlog dag5" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="114">
   <si>
     <t xml:space="preserve">Slice:</t>
   </si>
@@ -544,7 +548,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,7 +582,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B183"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFFB66C"/>
       </patternFill>
     </fill>
     <fill>
@@ -591,6 +595,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
         <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
   </fills>
@@ -651,7 +661,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -752,6 +762,46 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,15 +814,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,9 +885,9 @@
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFF4B183"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1695,8 +1753,8 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T27" activeCellId="0" sqref="T27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1771,6 +1829,1019 @@
         <v>94</v>
       </c>
     </row>
+    <row r="3" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" s="27" customFormat="true" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" s="27" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" s="29" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="166.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="3" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
         <v>92</v>
@@ -1823,32 +2894,1045 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="25" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
+    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="26" t="s">
+      <c r="H5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" s="27" customFormat="true" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" s="27" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" s="29" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="166.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1900,7 +3984,7 @@
       <c r="F7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="37" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="23" t="s">
@@ -1939,6 +4023,2032 @@
         <v>94</v>
       </c>
     </row>
+    <row r="9" s="27" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" s="29" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="166.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" s="23" customFormat="true" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" s="25" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" s="39" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" s="27" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="47.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="166.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="22" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" s="23" customFormat="true" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="9" s="23" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
         <v>95</v>
@@ -1958,7 +6068,7 @@
       <c r="F9" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="37" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="23" t="s">
@@ -1968,32 +6078,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" s="25" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+    <row r="10" s="35" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="25" t="n">
+      <c r="B10" s="35" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="26" t="s">
+      <c r="H10" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="36" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2267,7 +6377,7 @@
       <c r="F21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="33" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -2319,7 +6429,7 @@
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="33" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -2423,7 +6533,7 @@
       <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="34" t="s">
         <v>107</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2449,7 +6559,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="33" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -2475,7 +6585,7 @@
       <c r="F29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="33" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -2501,7 +6611,7 @@
       <c r="F30" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="33" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -2553,7 +6663,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="33" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -2579,7 +6689,7 @@
       <c r="F33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="33" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="0" t="s">

--- a/Planning en Documentatie/Backlog sprintresultaten.xlsx
+++ b/Planning en Documentatie/Backlog sprintresultaten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cursusadministatie User Stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -661,7 +661,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -778,20 +778,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1753,7 +1741,7 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1881,32 +1869,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="29" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
+    <row r="5" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1958,7 +1946,7 @@
       <c r="F7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -2016,7 +2004,7 @@
       <c r="F9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="27" t="s">
@@ -2026,32 +2014,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+    <row r="10" s="22" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="29" t="n">
+      <c r="B10" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2325,7 +2313,7 @@
       <c r="F21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -2377,7 +2365,7 @@
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -2481,7 +2469,7 @@
       <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="31" t="s">
         <v>107</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -2507,7 +2495,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -2533,7 +2521,7 @@
       <c r="F29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -2559,7 +2547,7 @@
       <c r="F30" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="30" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -2611,7 +2599,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -2637,7 +2625,7 @@
       <c r="F33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="0" t="s">
@@ -2894,32 +2882,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+    <row r="5" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2971,7 +2959,7 @@
       <c r="F7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="27" t="s">
@@ -3029,7 +3017,7 @@
       <c r="F9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="27" t="s">
@@ -3039,32 +3027,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+    <row r="10" s="22" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="29" t="n">
+      <c r="B10" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3338,7 +3326,7 @@
       <c r="F21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -3390,7 +3378,7 @@
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -3494,7 +3482,7 @@
       <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="31" t="s">
         <v>107</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -3520,7 +3508,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -3546,7 +3534,7 @@
       <c r="F29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -3572,7 +3560,7 @@
       <c r="F30" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="30" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -3624,7 +3612,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -3650,7 +3638,7 @@
       <c r="F33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="0" t="s">
@@ -3907,32 +3895,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+    <row r="5" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3984,7 +3972,7 @@
       <c r="F7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="34" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="23" t="s">
@@ -4042,7 +4030,7 @@
       <c r="F9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="27" t="s">
@@ -4052,32 +4040,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+    <row r="10" s="22" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="29" t="n">
+      <c r="B10" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4351,7 +4339,7 @@
       <c r="F21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -4403,7 +4391,7 @@
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -4507,7 +4495,7 @@
       <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="31" t="s">
         <v>107</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -4533,7 +4521,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -4559,7 +4547,7 @@
       <c r="F29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -4585,7 +4573,7 @@
       <c r="F30" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="30" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -4637,7 +4625,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -4663,7 +4651,7 @@
       <c r="F33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="0" t="s">
@@ -4920,32 +4908,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+    <row r="5" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4997,7 +4985,7 @@
       <c r="F7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="34" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="23" t="s">
@@ -5055,7 +5043,7 @@
       <c r="F9" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="25" t="s">
@@ -5065,32 +5053,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" s="39" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+    <row r="10" s="36" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="41" t="s">
+      <c r="H10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="38" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5364,7 +5352,7 @@
       <c r="F21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -5416,7 +5404,7 @@
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -5520,7 +5508,7 @@
       <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="31" t="s">
         <v>107</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -5546,7 +5534,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -5572,7 +5560,7 @@
       <c r="F29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -5598,7 +5586,7 @@
       <c r="F30" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="30" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -5650,7 +5638,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -5676,7 +5664,7 @@
       <c r="F33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="0" t="s">
@@ -5805,8 +5793,8 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5933,32 +5921,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+    <row r="5" s="32" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="B5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6010,7 +5998,7 @@
       <c r="F7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="34" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="23" t="s">
@@ -6068,7 +6056,7 @@
       <c r="F9" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="34" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="23" t="s">
@@ -6078,32 +6066,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+    <row r="10" s="32" customFormat="true" ht="17.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="35" t="n">
+      <c r="B10" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="33" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6377,7 +6365,7 @@
       <c r="F21" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="30" t="s">
         <v>63</v>
       </c>
       <c r="H21" s="0" t="s">
@@ -6429,7 +6417,7 @@
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="30" t="s">
         <v>65</v>
       </c>
       <c r="H23" s="0" t="s">
@@ -6533,7 +6521,7 @@
       <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="31" t="s">
         <v>107</v>
       </c>
       <c r="H27" s="22" t="s">
@@ -6559,7 +6547,7 @@
       <c r="F28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -6585,7 +6573,7 @@
       <c r="F29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="0" t="s">
@@ -6611,7 +6599,7 @@
       <c r="F30" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="30" t="s">
         <v>73</v>
       </c>
       <c r="H30" s="0" t="s">
@@ -6663,7 +6651,7 @@
       <c r="F32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="30" t="s">
         <v>72</v>
       </c>
       <c r="H32" s="0" t="s">
@@ -6689,7 +6677,7 @@
       <c r="F33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H33" s="0" t="s">
